--- a/src/excel/SpanishEnglish-VERBS9.xlsx
+++ b/src/excel/SpanishEnglish-VERBS9.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DETPC\Documents\NetBeansProjects\Produccion1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DETPC\Documents\JavaVSCodeProjects\LecturaImagenes\ReadingImages\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C4631E-1576-428F-9A7C-F825F0EF0077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CD85C3-B181-442E-9A78-BA72C82CBF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{48FDB698-C550-483D-A239-C921E9EAE320}"/>
   </bookViews>
@@ -204,9 +204,6 @@
     <t>murmurar</t>
   </si>
   <si>
-    <t>pasar por alto, mirar desde arriba</t>
-  </si>
-  <si>
     <t>dar forma</t>
   </si>
   <si>
@@ -267,9 +264,6 @@
     <t>eueit</t>
   </si>
   <si>
-    <t>buk</t>
-  </si>
-  <si>
     <t>brosh</t>
   </si>
   <si>
@@ -343,6 +337,12 @@
   </si>
   <si>
     <t>dudar(vacilar en hacer algo)</t>
+  </si>
+  <si>
+    <t>bok</t>
+  </si>
+  <si>
+    <t>(sobremirar) pasar por alto, vigilar desde lugar mas alto</t>
   </si>
 </sst>
 </file>
@@ -702,7 +702,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
         <v>37</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
         <v>38</v>
@@ -771,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
         <v>40</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
         <v>42</v>
@@ -813,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
         <v>43</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
         <v>44</v>
@@ -855,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="C11" t="s">
         <v>45</v>
@@ -869,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
         <v>46</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
         <v>47</v>
@@ -897,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
         <v>48</v>
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
         <v>49</v>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
         <v>50</v>
@@ -939,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
         <v>51</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s">
         <v>52</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
         <v>53</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
         <v>54</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
         <v>55</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="D22" t="s">
         <v>23</v>
@@ -1023,10 +1023,10 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D23" t="s">
         <v>24</v>
@@ -1037,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D24" t="s">
         <v>25</v>
@@ -1051,10 +1051,10 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D25" t="s">
         <v>26</v>
@@ -1068,7 +1068,7 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D26" t="s">
         <v>27</v>
@@ -1079,10 +1079,10 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D27" t="s">
         <v>28</v>
@@ -1093,10 +1093,10 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D28" t="s">
         <v>29</v>
@@ -1110,7 +1110,7 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D29" t="s">
         <v>30</v>
@@ -1121,10 +1121,10 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D30" t="s">
         <v>31</v>
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D31" t="s">
         <v>32</v>
@@ -1149,10 +1149,10 @@
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D32" t="s">
         <v>33</v>
@@ -1163,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D33" t="s">
         <v>34</v>
@@ -1177,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D34" t="s">
         <v>35</v>
@@ -1191,10 +1191,10 @@
         <v>0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D35" t="s">
         <v>36</v>
